--- a/Download/asset_list.xlsx
+++ b/Download/asset_list.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="105">
   <si>
     <t>Id</t>
   </si>
@@ -53,31 +53,280 @@
     <t/>
   </si>
   <si>
-    <t>Headset</t>
-  </si>
-  <si>
-    <t>Salesforce</t>
-  </si>
-  <si>
-    <t>awdawdwd</t>
-  </si>
-  <si>
-    <t>asdasdadasdasd</t>
-  </si>
-  <si>
-    <t>Caelius</t>
-  </si>
-  <si>
-    <t>2132312232</t>
-  </si>
-  <si>
-    <t>TOSHIBA</t>
-  </si>
-  <si>
-    <t>qweqweqwe</t>
-  </si>
-  <si>
-    <t>qwe</t>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>SQE</t>
+  </si>
+  <si>
+    <t>12JJDSkK23</t>
+  </si>
+  <si>
+    <t>IE1223</t>
+  </si>
+  <si>
+    <t>Intel Core</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>256.0</t>
+  </si>
+  <si>
+    <t>12JJDSkK24</t>
+  </si>
+  <si>
+    <t>12JJDSkK25</t>
+  </si>
+  <si>
+    <t>12JJDSkK26</t>
+  </si>
+  <si>
+    <t>12JJDSkK27</t>
+  </si>
+  <si>
+    <t>12JJDSkK28</t>
+  </si>
+  <si>
+    <t>DH12212</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>DH12213</t>
+  </si>
+  <si>
+    <t>DH12214</t>
+  </si>
+  <si>
+    <t>DH12215</t>
+  </si>
+  <si>
+    <t>DH12216</t>
+  </si>
+  <si>
+    <t>DH12217</t>
+  </si>
+  <si>
+    <t>DH12221</t>
+  </si>
+  <si>
+    <t>DH12222</t>
+  </si>
+  <si>
+    <t>DH12223</t>
+  </si>
+  <si>
+    <t>DH12224</t>
+  </si>
+  <si>
+    <t>DH12225</t>
+  </si>
+  <si>
+    <t>DH12226</t>
+  </si>
+  <si>
+    <t>DH12227</t>
+  </si>
+  <si>
+    <t>DH1222131</t>
+  </si>
+  <si>
+    <t>DH1222232</t>
+  </si>
+  <si>
+    <t>DH1222333</t>
+  </si>
+  <si>
+    <t>DH1222434</t>
+  </si>
+  <si>
+    <t>DH1222535</t>
+  </si>
+  <si>
+    <t>DH1222636</t>
+  </si>
+  <si>
+    <t>DH1222737</t>
+  </si>
+  <si>
+    <t>DH1222138</t>
+  </si>
+  <si>
+    <t>DH1222139</t>
+  </si>
+  <si>
+    <t>DH1222140</t>
+  </si>
+  <si>
+    <t>DH1222141</t>
+  </si>
+  <si>
+    <t>DH1222142</t>
+  </si>
+  <si>
+    <t>DH1222143</t>
+  </si>
+  <si>
+    <t>DH1222144</t>
+  </si>
+  <si>
+    <t>8838838.0</t>
+  </si>
+  <si>
+    <t>6767.0</t>
+  </si>
+  <si>
+    <t>456456.0</t>
+  </si>
+  <si>
+    <t>354433.0</t>
+  </si>
+  <si>
+    <t>8.76787656E8</t>
+  </si>
+  <si>
+    <t>745444.0</t>
+  </si>
+  <si>
+    <t>345233.0</t>
+  </si>
+  <si>
+    <t>ABCXYZKLJ</t>
+  </si>
+  <si>
+    <t>123583288</t>
+  </si>
+  <si>
+    <t>783838783000</t>
+  </si>
+  <si>
+    <t>2BCXYZKLJ</t>
+  </si>
+  <si>
+    <t>78H838783000</t>
+  </si>
+  <si>
+    <t>123583dd288</t>
+  </si>
+  <si>
+    <t>78H838783dd000</t>
+  </si>
+  <si>
+    <t>1.2321321E7</t>
+  </si>
+  <si>
+    <t>6456445.0</t>
+  </si>
+  <si>
+    <t>8888888.0</t>
+  </si>
+  <si>
+    <t>DH1222889</t>
+  </si>
+  <si>
+    <t>DH1222890</t>
+  </si>
+  <si>
+    <t>DH1222891</t>
+  </si>
+  <si>
+    <t>DH1222893</t>
+  </si>
+  <si>
+    <t>DH1222894</t>
+  </si>
+  <si>
+    <t>DH1222895</t>
+  </si>
+  <si>
+    <t>JKFK32323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1 </t>
+  </si>
+  <si>
+    <t>45578</t>
+  </si>
+  <si>
+    <t>JKFK32326</t>
+  </si>
+  <si>
+    <t>JKFK32327</t>
+  </si>
+  <si>
+    <t>JKFK32328</t>
+  </si>
+  <si>
+    <t>JKFK32329</t>
+  </si>
+  <si>
+    <t>JKFK32320</t>
+  </si>
+  <si>
+    <t>JKFK32390</t>
+  </si>
+  <si>
+    <t>JKFK32380</t>
+  </si>
+  <si>
+    <t>JKFK32330</t>
+  </si>
+  <si>
+    <t>JKFK32350</t>
+  </si>
+  <si>
+    <t>JKFK32370</t>
+  </si>
+  <si>
+    <t>JKFK32670</t>
+  </si>
+  <si>
+    <t>JKFK326670</t>
+  </si>
+  <si>
+    <t>JKFK32770</t>
+  </si>
+  <si>
+    <t>JKFK1825</t>
+  </si>
+  <si>
+    <t>JKFK182597</t>
+  </si>
+  <si>
+    <t>JKFK18259</t>
+  </si>
+  <si>
+    <t>JKFK18269</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>testweqwet</t>
+  </si>
+  <si>
+    <t>testweq</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>test1123</t>
+  </si>
+  <si>
+    <t>JKF232323</t>
+  </si>
+  <si>
+    <t>JKFK34323</t>
+  </si>
+  <si>
+    <t>12FK34323</t>
   </si>
 </sst>
 </file>
@@ -122,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -133,12 +382,12 @@
     <col min="3" max="3" width="13.8125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.94921875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="10.32421875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="9.0703125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="12.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.97265625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="8.52734375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="4.41796875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="4.1015625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.02734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="15.0703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="10.8125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="8.546875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="5.89453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="5.39453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -178,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>151.0</v>
+        <v>184.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>11</v>
@@ -200,18 +449,18 @@
         <v>16</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>154.0</v>
+        <v>185.0</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>11</v>
@@ -224,27 +473,27 @@
         <v>13</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="K3" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>156.0</v>
+        <v>186.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>11</v>
@@ -257,22 +506,2629 @@
         <v>13</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>187.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" s="0"/>
+      <c r="E5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>188.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0"/>
+      <c r="E6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>189.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0"/>
+      <c r="E7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>217.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D8" s="0"/>
+      <c r="E8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>218.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D9" s="0"/>
+      <c r="E9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>219.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0"/>
+      <c r="E10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>220.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D11" s="0"/>
+      <c r="E11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>221.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D12" s="0"/>
+      <c r="E12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>222.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D13" s="0"/>
+      <c r="E13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>223.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D14" s="0"/>
+      <c r="E14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>224.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D15" s="0"/>
+      <c r="E15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D16" s="0"/>
+      <c r="E16" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>226.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D17" s="0"/>
+      <c r="E17" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>227.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D18" s="0"/>
+      <c r="E18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>228.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D19" s="0"/>
+      <c r="E19" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>229.0</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D20" s="0"/>
+      <c r="E20" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D21" s="0"/>
+      <c r="E21" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D22" s="0"/>
+      <c r="E22" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="0">
+        <v>232.0</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D23" s="0"/>
+      <c r="E23" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="0">
+        <v>233.0</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D24" s="0"/>
+      <c r="E24" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="0">
+        <v>234.0</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D25" s="0"/>
+      <c r="E25" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>235.0</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D26" s="0"/>
+      <c r="E26" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K26" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="0">
+        <v>236.0</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D27" s="0"/>
+      <c r="E27" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K27" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="0">
+        <v>239.0</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D28" s="0"/>
+      <c r="E28" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K28" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D29" s="0"/>
+      <c r="E29" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K29" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="0">
+        <v>241.0</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D30" s="0"/>
+      <c r="E30" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K30" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>242.0</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D31" s="0"/>
+      <c r="E31" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K31" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="0">
+        <v>243.0</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D32" s="0"/>
+      <c r="E32" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K32" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D33" s="0"/>
+      <c r="E33" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K33" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D34" s="0"/>
+      <c r="E34" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K34" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="0">
+        <v>250.0</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D35" s="0"/>
+      <c r="E35" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K35" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="0">
+        <v>251.0</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D36" s="0"/>
+      <c r="E36" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K36" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="0">
+        <v>252.0</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D37" s="0"/>
+      <c r="E37" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K37" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="0">
+        <v>253.0</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D38" s="0"/>
+      <c r="E38" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I38" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K38" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="0">
+        <v>254.0</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D39" s="0"/>
+      <c r="E39" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K39" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="0">
+        <v>255.0</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D40" s="0"/>
+      <c r="E40" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I40" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K40" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="0">
+        <v>256.0</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D41" s="0"/>
+      <c r="E41" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K41" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="0">
+        <v>259.0</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D42" s="0"/>
+      <c r="E42" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K42" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="0">
+        <v>260.0</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D43" s="0"/>
+      <c r="E43" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K43" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="0">
+        <v>261.0</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D44" s="0"/>
+      <c r="E44" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K44" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="0">
+        <v>270.0</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D45" s="0"/>
+      <c r="E45" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K45" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="0">
+        <v>271.0</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D46" s="0"/>
+      <c r="E46" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K46" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="0">
+        <v>273.0</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D47" s="0"/>
+      <c r="E47" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="H47" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I47" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K47" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="0">
+        <v>274.0</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D48" s="0"/>
+      <c r="E48" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="H48" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K48" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="0">
+        <v>294.0</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D49" s="0"/>
+      <c r="E49" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H49" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K49" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="0">
+        <v>295.0</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D50" s="0"/>
+      <c r="E50" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H50" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J50" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K50" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="0">
+        <v>296.0</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D51" s="0"/>
+      <c r="E51" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="H51" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I51" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J51" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K51" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="0">
+        <v>297.0</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D52" s="0"/>
+      <c r="E52" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I52" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J52" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K52" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="0">
+        <v>298.0</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D53" s="0"/>
+      <c r="E53" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I53" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K53" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="0">
+        <v>299.0</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D54" s="0"/>
+      <c r="E54" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H54" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I54" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J54" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K54" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="0">
+        <v>301.0</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D55" s="0"/>
+      <c r="E55" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I55" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J55" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K55" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="0">
+        <v>302.0</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D56" s="0"/>
+      <c r="E56" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H56" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I56" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J56" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K56" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="0">
+        <v>303.0</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D57" s="0"/>
+      <c r="E57" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="H57" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I57" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J57" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K57" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="0">
+        <v>317.0</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D58" s="0"/>
+      <c r="E58" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I58" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K58" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="0">
+        <v>318.0</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D59" s="0"/>
+      <c r="E59" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="J59" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="K59" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="0">
+        <v>319.0</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D60" s="0"/>
+      <c r="E60" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="H60" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I60" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J60" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K60" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="0">
+        <v>320.0</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D61" s="0"/>
+      <c r="E61" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="H61" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I61" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J61" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K61" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="0">
+        <v>321.0</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D62" s="0"/>
+      <c r="E62" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I62" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J62" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K62" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="0">
+        <v>322.0</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D63" s="0"/>
+      <c r="E63" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H63" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I63" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J63" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K63" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="0">
+        <v>323.0</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D64" s="0"/>
+      <c r="E64" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="H64" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I64" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="J64" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K64" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n" s="0">
+        <v>324.0</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D65" s="0"/>
+      <c r="E65" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="H65" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I65" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="J65" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="K65" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="0">
+        <v>325.0</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D66" s="0"/>
+      <c r="E66" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="H66" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I66" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J66" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K66" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="0">
+        <v>326.0</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D67" s="0"/>
+      <c r="E67" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="H67" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I67" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="J67" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="K67" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n" s="0">
+        <v>327.0</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D68" s="0"/>
+      <c r="E68" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="H68" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I68" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J68" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K68" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="0">
+        <v>328.0</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D69" s="0"/>
+      <c r="E69" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="H69" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I69" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J69" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K69" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n" s="0">
+        <v>329.0</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D70" s="0"/>
+      <c r="E70" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H70" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I70" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J70" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K70" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n" s="0">
+        <v>330.0</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D71" s="0"/>
+      <c r="E71" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="H71" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I71" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J71" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K71" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n" s="0">
+        <v>331.0</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D72" s="0"/>
+      <c r="E72" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="H72" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I72" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J72" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K72" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="0">
+        <v>332.0</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D73" s="0"/>
+      <c r="E73" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="H73" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I73" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J73" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K73" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="0">
+        <v>342.0</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D74" s="0"/>
+      <c r="E74" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="H74" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I74" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J74" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K74" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n" s="0">
+        <v>343.0</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D75" s="0"/>
+      <c r="E75" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="H75" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I75" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J75" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K75" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n" s="0">
+        <v>344.0</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D76" s="0"/>
+      <c r="E76" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="H76" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="I76" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="J76" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="K76" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="0">
+        <v>345.0</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D77" s="0"/>
+      <c r="E77" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="H77" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="I77" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="J77" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="K77" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n" s="0">
+        <v>347.0</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D78" s="0"/>
+      <c r="E78" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="H78" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="I78" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="J78" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="K78" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="0">
+        <v>348.0</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D79" s="0"/>
+      <c r="E79" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="H79" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="I79" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="J79" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="K79" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="0">
+        <v>349.0</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D80" s="0"/>
+      <c r="E80" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="H80" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="I80" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="J80" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="K80" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="0">
+        <v>350.0</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D81" s="0"/>
+      <c r="E81" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="H81" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="I81" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J81" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K81" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n" s="0">
+        <v>351.0</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D82" s="0"/>
+      <c r="E82" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="H82" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I82" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J82" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K82" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n" s="0">
+        <v>354.0</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D83" s="0"/>
+      <c r="E83" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="H83" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I83" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J83" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="K83" t="s" s="0">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Download/asset_list.xlsx
+++ b/Download/asset_list.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="54">
   <si>
     <t>Id</t>
   </si>
@@ -53,55 +53,127 @@
     <t/>
   </si>
   <si>
-    <t>Keyboard</t>
-  </si>
-  <si>
-    <t>Salesforce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  testtest</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> testtest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>354353</t>
-  </si>
-  <si>
-    <t>dfvdfv</t>
-  </si>
-  <si>
-    <t>*&amp;^&amp;*!@#^2</t>
-  </si>
-  <si>
-    <t>@!#!@#213s</t>
-  </si>
-  <si>
-    <t>129389120312121</t>
-  </si>
-  <si>
-    <t>TOSHIBA</t>
-  </si>
-  <si>
-    <t>sadjk</t>
-  </si>
-  <si>
-    <t>asdjkh</t>
-  </si>
-  <si>
-    <t>12938912031212qs</t>
-  </si>
-  <si>
-    <t>Toshiba</t>
+    <t>Wireless Mouse</t>
+  </si>
+  <si>
+    <t>Caelius</t>
+  </si>
+  <si>
+    <t>DELL041</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>DELL042</t>
+  </si>
+  <si>
+    <t>DELL043</t>
+  </si>
+  <si>
+    <t>DELL044</t>
+  </si>
+  <si>
+    <t>DELL045</t>
+  </si>
+  <si>
+    <t>DELL046</t>
+  </si>
+  <si>
+    <t>DELL047</t>
+  </si>
+  <si>
+    <t>DELL048</t>
+  </si>
+  <si>
+    <t>DELL049</t>
+  </si>
+  <si>
+    <t>DELL050</t>
+  </si>
+  <si>
+    <t>DELL051</t>
+  </si>
+  <si>
+    <t>DELL052</t>
+  </si>
+  <si>
+    <t>DELL053</t>
+  </si>
+  <si>
+    <t>DELL054</t>
+  </si>
+  <si>
+    <t>DELL055</t>
+  </si>
+  <si>
+    <t>DELL056</t>
+  </si>
+  <si>
+    <t>DELL018</t>
+  </si>
+  <si>
+    <t>DELL019</t>
+  </si>
+  <si>
+    <t>DELL020</t>
+  </si>
+  <si>
+    <t>DELL021</t>
+  </si>
+  <si>
+    <t>DELL022</t>
+  </si>
+  <si>
+    <t>DELL023</t>
+  </si>
+  <si>
+    <t>DELL024</t>
+  </si>
+  <si>
+    <t>DELL025</t>
+  </si>
+  <si>
+    <t>DELL026</t>
+  </si>
+  <si>
+    <t>DELL027</t>
+  </si>
+  <si>
+    <t>DELL028</t>
+  </si>
+  <si>
+    <t>DELL029</t>
+  </si>
+  <si>
+    <t>DELL030</t>
+  </si>
+  <si>
+    <t>DELL031</t>
+  </si>
+  <si>
+    <t>DELL032</t>
+  </si>
+  <si>
+    <t>DELL033</t>
+  </si>
+  <si>
+    <t>DELL034</t>
+  </si>
+  <si>
+    <t>DELL035</t>
+  </si>
+  <si>
+    <t>DELL036</t>
+  </si>
+  <si>
+    <t>DELL037</t>
+  </si>
+  <si>
+    <t>DELL038</t>
+  </si>
+  <si>
+    <t>DELL039</t>
   </si>
 </sst>
 </file>
@@ -146,7 +218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -156,10 +228,10 @@
     <col min="2" max="2" width="13.0078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.8125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.94921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.32421875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="9.0703125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.75" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.13671875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="12.15234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="10.8125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="8.52734375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="4.41796875" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="4.1015625" customWidth="true" bestFit="true"/>
@@ -202,7 +274,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>119.0</v>
+        <v>153.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>11</v>
@@ -223,19 +295,13 @@
       <c r="H2" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="I2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s" s="0">
-        <v>17</v>
-      </c>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>141.0</v>
+        <v>154.0</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>11</v>
@@ -251,24 +317,18 @@
         <v>14</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>149.0</v>
+        <v>155.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>11</v>
@@ -284,24 +344,18 @@
         <v>14</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>158.0</v>
+        <v>156.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>11</v>
@@ -317,24 +371,18 @@
         <v>14</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s" s="0">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>192.0</v>
+        <v>157.0</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>11</v>
@@ -350,24 +398,18 @@
         <v>14</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s" s="0">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>206.0</v>
+        <v>158.0</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>11</v>
@@ -383,24 +425,18 @@
         <v>14</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s" s="0">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>442.0</v>
+        <v>159.0</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>11</v>
@@ -416,20 +452,851 @@
         <v>14</v>
       </c>
       <c r="G8" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>160.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D9" s="0"/>
+      <c r="E9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>161.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0"/>
+      <c r="E10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>162.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D11" s="0"/>
+      <c r="E11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>163.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D12" s="0"/>
+      <c r="E12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>164.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D13" s="0"/>
+      <c r="E13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>165.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D14" s="0"/>
+      <c r="E14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>166.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D15" s="0"/>
+      <c r="E15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="I8" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="J8" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="K8" t="s" s="0">
-        <v>12</v>
-      </c>
+      <c r="H15" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>167.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D16" s="0"/>
+      <c r="E16" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>168.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D17" s="0"/>
+      <c r="E17" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>169.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D18" s="0"/>
+      <c r="E18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>170.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D19" s="0"/>
+      <c r="E19" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>171.0</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D20" s="0"/>
+      <c r="E20" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="0">
+        <v>172.0</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D21" s="0"/>
+      <c r="E21" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="0">
+        <v>173.0</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D22" s="0"/>
+      <c r="E22" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="0">
+        <v>174.0</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D23" s="0"/>
+      <c r="E23" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="0">
+        <v>175.0</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D24" s="0"/>
+      <c r="E24" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="0">
+        <v>176.0</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D25" s="0"/>
+      <c r="E25" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>177.0</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D26" s="0"/>
+      <c r="E26" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="0">
+        <v>178.0</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D27" s="0"/>
+      <c r="E27" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="0">
+        <v>179.0</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D28" s="0"/>
+      <c r="E28" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D29" s="0"/>
+      <c r="E29" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="0">
+        <v>181.0</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D30" s="0"/>
+      <c r="E30" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>182.0</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D31" s="0"/>
+      <c r="E31" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="0">
+        <v>183.0</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D32" s="0"/>
+      <c r="E32" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="0">
+        <v>184.0</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D33" s="0"/>
+      <c r="E33" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="0">
+        <v>185.0</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D34" s="0"/>
+      <c r="E34" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="0">
+        <v>186.0</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D35" s="0"/>
+      <c r="E35" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="0">
+        <v>187.0</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D36" s="0"/>
+      <c r="E36" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="0">
+        <v>188.0</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D37" s="0"/>
+      <c r="E37" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="0">
+        <v>189.0</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D38" s="0"/>
+      <c r="E38" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="0">
+        <v>190.0</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D39" s="0"/>
+      <c r="E39" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
